--- a/src/test/resources/testData/LoginData2.xlsx
+++ b/src/test/resources/testData/LoginData2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9335" firstSheet="8" activeTab="12"/>
+    <workbookView windowWidth="23040" windowHeight="9335" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="LogIn" sheetId="1" r:id="rId1"/>
@@ -139,10 +139,10 @@
     <t>viewUnqiueName</t>
   </si>
   <si>
-    <t>Vigneshk</t>
-  </si>
-  <si>
-    <t>_77</t>
+    <t>Vigneshkan</t>
+  </si>
+  <si>
+    <t>_77189</t>
   </si>
   <si>
     <t>newTerritoryName</t>
@@ -255,6 +255,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -277,10 +292,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -292,11 +308,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -324,10 +339,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -340,14 +355,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,21 +385,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -390,13 +397,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -407,162 +407,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -570,24 +588,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,6 +598,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -612,15 +621,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,9 +642,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,32 +698,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -721,130 +721,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1329,7 +1329,7 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1634,13 +1634,13 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="10.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="13.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="16.8888888888889" customWidth="1"/>
     <col min="3" max="16384" width="9" customWidth="1"/>
   </cols>
